--- a/target/test-classes/Excel-sheets/SampleExcel.xlsx
+++ b/target/test-classes/Excel-sheets/SampleExcel.xlsx
@@ -32,7 +32,7 @@
     <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/login</t>
   </si>
   <si>
-    <t>RM</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
